--- a/data/spare.xlsx
+++ b/data/spare.xlsx
@@ -4,20 +4,24 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="876" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="inexistentID" sheetId="1" r:id="rId1"/>
-    <sheet name="invalidOption" sheetId="2" r:id="rId2"/>
-    <sheet name="invalidParameter" sheetId="3" r:id="rId3"/>
-    <sheet name="missingParameter" sheetId="4" r:id="rId4"/>
+    <sheet name="add_global_spare" sheetId="5" r:id="rId1"/>
+    <sheet name="add_dedicated_spare" sheetId="6" r:id="rId2"/>
+    <sheet name="list_spare" sheetId="7" r:id="rId3"/>
+    <sheet name="list_spare_by_verbose_mode" sheetId="8" r:id="rId4"/>
+    <sheet name="delete_spare" sheetId="9" r:id="rId5"/>
+    <sheet name="invalid_parameter_for_spare" sheetId="3" r:id="rId6"/>
+    <sheet name="invalid_option_for_spare" sheetId="2" r:id="rId7"/>
+    <sheet name="missing_parameter_for_spare" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="111">
   <si>
     <t>command</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -27,165 +31,404 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t># -p &lt;PD ID&gt; (0,512)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>spare -i 256</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>spare -a add -t g -d 0 -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spare -a add -t g -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spare -a add -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spare -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spare -a del -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invalid option: -test</t>
+  </si>
+  <si>
+    <t>spare -a del test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spare -a add -t g -r test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spare -a add -t g -d test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spare -i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spare -d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spare -a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spare -v -i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">spare -a add </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spare -a add -t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">spare -a add -t g </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spare -a add -t g -r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spare -a add -t g -r n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spare -a add -t d -d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spare -a add -t d -d 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spare -a add -t g -r n -p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spare -a add -t d -d 0 -p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spare -a del</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spare -a del -i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spare -a add -t g -p 513</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spare -a add -t test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spare test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spare -i 257</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Missing parameter</t>
+  </si>
+  <si>
+    <t>send command</t>
+  </si>
+  <si>
+    <t>expect result</t>
+  </si>
+  <si>
+    <t>send command for checkpoint</t>
+  </si>
+  <si>
+    <t>checkpoint</t>
+  </si>
+  <si>
+    <t>spare -a add -t g -r y -p 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spare should be added</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>rebuild should start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a offline -p 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Running</t>
+  </si>
+  <si>
+    <t>phydrv -a clear -p 1 -t staleconfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -p 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unconfigured</t>
+  </si>
+  <si>
+    <t>clean up environment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pool -a del -f -y -i 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete pool 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a offline -p 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not running</t>
+  </si>
+  <si>
+    <t>Running</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rebuild should do not start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No spare</t>
+  </si>
+  <si>
+    <t>Dedicated</t>
+  </si>
+  <si>
+    <t>spare -a add -t d -d 0 -r n -p 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spare -i 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spare -i 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all of spare drives should be listed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spare 0 drives should be listed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spare 1 spare drives should be listed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>PdId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capacity </t>
+  </si>
+  <si>
+    <t>Revertible</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DedicatedToPool </t>
+  </si>
+  <si>
+    <t>spare -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spare -v -i 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spare -v -i 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all of spare drives should be listed by verbose mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spare 0 drives should be listed by verbose mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spare 1 spare drives should be listed by verbose mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id:</t>
+  </si>
+  <si>
+    <t>PdId:</t>
+  </si>
+  <si>
+    <t>Type:</t>
+  </si>
+  <si>
+    <t>PhysicalCapacity:</t>
+  </si>
+  <si>
+    <t>Status:</t>
+  </si>
+  <si>
+    <t>PoolList:</t>
+  </si>
+  <si>
+    <t>Type: Global</t>
+  </si>
+  <si>
+    <t>Type: Dedicated</t>
+  </si>
+  <si>
+    <t>spare -a del -i 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spare -a del -i 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spare 0 should be deleted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spare 1 should be deleted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\r\n0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\r\n1</t>
+  </si>
+  <si>
+    <t>spare -a add -t g -r n -p 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Physical drive in use</t>
+  </si>
+  <si>
+    <t>spare -a del -i 256</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spare -a del -i 257</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting parameters</t>
+  </si>
+  <si>
+    <t>(0,256)</t>
+  </si>
+  <si>
+    <t>Invalid spare id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0,512)</t>
+  </si>
+  <si>
+    <t>spare -a add -t g -p 512</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Physical drive not found</t>
+  </si>
+  <si>
+    <t>spare -a add -t d -d 33 -p 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spare -a add -t d -d 31 -p 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>specified pool not found</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invalid data buffer</t>
+  </si>
+  <si>
+    <t>spare -a add -t d -d 32 -p 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0,31)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>No spare drive found</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spare -a add -t g -p 512</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spare -a del -i 255</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t># -d &lt;POOL ID or POOL ID List&gt;  (0, 32)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spare -a add -t g -d 0 -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spare -a add -t g -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spare -a add -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spare -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spare -a del -test</t>
+  </si>
+  <si>
+    <t>spare should be added</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>invalid option: -test</t>
-  </si>
-  <si>
-    <t>spare -a del test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>invalid setting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spare -a add -t g -r test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spare -a add -t g -d test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spare -i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spare -d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spare -a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spare -v -i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">spare -a add </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spare -a add -t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">spare -a add -t g </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spare -a add -t g -r</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spare -a add -t g -r n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spare -a add -t d -d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spare -a add -t d -d 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spare -a add -t g -r n -p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spare -a add -t d -d 0 -p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spare -a del</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spare -a del -i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spare -a add -t g -p 513</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spare -a add -t test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spare -a add -t d d 33 -p 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spare test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spare -i 257</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spare -a list test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Missing parameter</t>
-  </si>
-  <si>
-    <t>spare -a add -t d -d 31 -p 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -229,9 +472,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -533,62 +775,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="31.625" customWidth="1"/>
-    <col min="4" max="4" width="45" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="29.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -600,163 +853,233 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="32.375" customWidth="1"/>
+    <col min="1" max="1" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="29.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.875" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+        <v>61</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -768,10 +1091,436 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.375" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="29.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="37.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -789,122 +1538,122 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
         <v>31</v>
-      </c>
-      <c r="B11" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/data/spare.xlsx
+++ b/data/spare.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="876" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="876" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="add_global_spare" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="109">
   <si>
     <t>command</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -31,10 +31,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>spare -i 256</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>spare -a add -t g -d 0 -test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -415,9 +411,6 @@
   <si>
     <t>(0,31)</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No spare drive found</t>
   </si>
   <si>
     <t>spare should be added</t>
@@ -790,58 +783,58 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>34</v>
-      </c>
-      <c r="D1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
         <v>36</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>38</v>
-      </c>
-      <c r="D2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
         <v>42</v>
-      </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
         <v>44</v>
       </c>
-      <c r="B4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>45</v>
-      </c>
-      <c r="D4" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -868,86 +861,86 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>34</v>
-      </c>
-      <c r="D1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
         <v>51</v>
-      </c>
-      <c r="B3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
         <v>40</v>
       </c>
-      <c r="C4" t="s">
-        <v>41</v>
-      </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
         <v>44</v>
       </c>
-      <c r="B5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>45</v>
-      </c>
-      <c r="D5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
         <v>48</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>49</v>
       </c>
-      <c r="C6" t="s">
-        <v>50</v>
-      </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -980,106 +973,106 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" t="s">
-        <v>33</v>
-      </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
         <v>64</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>65</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>66</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>67</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>68</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>69</v>
-      </c>
-      <c r="I2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" t="s">
         <v>64</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>65</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>66</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>67</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>68</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>69</v>
-      </c>
-      <c r="J3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
         <v>63</v>
       </c>
-      <c r="C4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>64</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>65</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>66</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>67</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>68</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>69</v>
-      </c>
-      <c r="J4" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1112,100 +1105,100 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" t="s">
-        <v>33</v>
-      </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" t="s">
         <v>77</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>78</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" t="s">
         <v>79</v>
       </c>
-      <c r="F2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>80</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>81</v>
-      </c>
-      <c r="I2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
         <v>77</v>
       </c>
-      <c r="D3" t="s">
-        <v>78</v>
-      </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" t="s">
         <v>80</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>81</v>
-      </c>
-      <c r="I3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s">
         <v>76</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>77</v>
       </c>
-      <c r="D4" t="s">
-        <v>78</v>
-      </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" t="s">
         <v>80</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>81</v>
-      </c>
-      <c r="I4" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1232,44 +1225,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>34</v>
-      </c>
-      <c r="D1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" t="s">
         <v>89</v>
-      </c>
-      <c r="D2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" t="s">
         <v>88</v>
       </c>
-      <c r="C3" t="s">
-        <v>89</v>
-      </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1281,10 +1274,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1304,97 +1297,97 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s">
         <v>92</v>
-      </c>
-      <c r="B2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>95</v>
+      </c>
+      <c r="C4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>95</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" t="s">
         <v>105</v>
-      </c>
-      <c r="B10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -1402,23 +1395,23 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -1426,18 +1419,10 @@
         <v>94</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
         <v>95</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C15" t="s">
         <v>96</v>
-      </c>
-      <c r="C16" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1471,42 +1456,42 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
         <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1519,7 +1504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
@@ -1538,122 +1523,122 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/data/spare.xlsx
+++ b/data/spare.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="876" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="876" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="add_global_spare" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="111">
   <si>
     <t>command</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -422,6 +422,14 @@
   </si>
   <si>
     <t>Missing parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>excepted</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1274,44 +1282,54 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5" customWidth="1"/>
+    <col min="3" max="3" width="37.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>91</v>
       </c>
       <c r="B2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -1319,26 +1337,35 @@
         <v>95</v>
       </c>
       <c r="C4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>27</v>
       </c>
       <c r="B5" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>99</v>
       </c>
       <c r="B6" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1346,10 +1373,13 @@
         <v>95</v>
       </c>
       <c r="C7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>102</v>
       </c>
@@ -1357,10 +1387,13 @@
         <v>95</v>
       </c>
       <c r="C8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>104</v>
       </c>
@@ -1368,10 +1401,13 @@
         <v>95</v>
       </c>
       <c r="C9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>101</v>
       </c>
@@ -1379,42 +1415,57 @@
         <v>95</v>
       </c>
       <c r="C10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>8</v>
       </c>
       <c r="B13" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>93</v>
       </c>
       <c r="B14" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>94</v>
       </c>
@@ -1422,6 +1473,9 @@
         <v>95</v>
       </c>
       <c r="C15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1434,63 +1488,81 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="37.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.375" customWidth="1"/>
+    <col min="2" max="3" width="32.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1502,142 +1574,190 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="32.875" customWidth="1"/>
+    <col min="1" max="3" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>18</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>19</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>25</v>
       </c>
       <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
         <v>30</v>
       </c>
     </row>
